--- a/excel/exported/leaves.xlsx
+++ b/excel/exported/leaves.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="797">
   <si>
     <t>2F1</t>
   </si>
@@ -2068,6 +2068,342 @@
   </si>
   <si>
     <t>2021-06-02 14:19:07.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 09:18:40.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 09:18:52.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 09:19:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 09:19:10.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 11:19:05.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 11:19:18.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 08:24:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 08:44:30.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 09:19:24.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 09:19:32.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 09:28:57.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 09:42:39.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 13:29:04.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 09:12:27.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 09:12:37.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 09:13:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 10:34:04.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 10:34:18.0000000</t>
+  </si>
+  <si>
+    <t>TO TGL 06/06/2021</t>
+  </si>
+  <si>
+    <t>2021-06-05 21:20:13.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 14:22:11.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 15:45:01.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 15:49:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 09:27:59.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 09:28:08.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 09:28:15.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 09:37:13.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 14:04:52.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 14:19:12.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-08 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-08 10:32:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-08 11:38:21.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-08 13:33:14.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-08 13:47:26.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-08 13:47:56.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-08 13:53:29.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 09:08:10.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 09:08:18.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 09:08:27.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 09:51:58.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 10:54:12.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 13:50:13.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 09:11:49.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 09:36:46.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 09:46:54.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 09:49:09.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 13:20:52.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 13:56:46.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 09:51:01.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 10:03:08.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 10:03:20.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 10:03:31.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 13:19:55.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 14:21:58.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 09:22:06.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 09:22:16.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 09:22:27.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 09:22:38.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 10:39:06.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 08:19:44.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 08:19:52.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 08:20:01.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 09:07:04.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 10:55:41.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 10:56:08.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 08:42:45.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 09:01:46.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 10:28:28.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 10:56:52.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 08:54:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 09:47:54.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 09:48:05.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 09:48:14.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 13:47:50.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 14:07:12.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-17 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-17 08:36:43.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-17 08:59:36.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-17 09:37:32.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-17 09:37:45.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-17 09:45:43.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-17 09:48:42.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-17 14:11:20.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 09:12:20.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 09:27:16.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 09:27:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 09:52:19.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 10:44:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 11:03:07.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-19 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-19 08:02:50.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-19 08:09:56.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-19 08:57:29.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-19 08:57:36.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-19 10:01:18.0000000</t>
+  </si>
+  <si>
+    <t>TO MINGGU 20-06-2021</t>
+  </si>
+  <si>
+    <t>2021-06-19 13:12:03.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-19 13:51:02.0000000</t>
+  </si>
+  <si>
+    <t>TO 20-06-2021</t>
+  </si>
+  <si>
+    <t>2021-06-19 15:37:58.0000000</t>
   </si>
 </sst>
 </file>
@@ -2111,7 +2447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L507"/>
+  <dimension ref="A1:L600"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -13853,6 +14189,2157 @@
         <v>684</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508">
+        <v>2517</v>
+      </c>
+      <c r="B508" t="s">
+        <v>7</v>
+      </c>
+      <c r="C508" t="s">
+        <v>10</v>
+      </c>
+      <c r="I508">
+        <v>1004</v>
+      </c>
+      <c r="J508" t="s">
+        <v>685</v>
+      </c>
+      <c r="K508" t="s">
+        <v>686</v>
+      </c>
+      <c r="L508" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509">
+        <v>2518</v>
+      </c>
+      <c r="B509" t="s">
+        <v>7</v>
+      </c>
+      <c r="C509" t="s">
+        <v>10</v>
+      </c>
+      <c r="I509">
+        <v>1004</v>
+      </c>
+      <c r="J509" t="s">
+        <v>685</v>
+      </c>
+      <c r="K509" t="s">
+        <v>687</v>
+      </c>
+      <c r="L509" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510">
+        <v>2519</v>
+      </c>
+      <c r="B510" t="s">
+        <v>7</v>
+      </c>
+      <c r="C510" t="s">
+        <v>10</v>
+      </c>
+      <c r="I510">
+        <v>1004</v>
+      </c>
+      <c r="J510" t="s">
+        <v>685</v>
+      </c>
+      <c r="K510" t="s">
+        <v>688</v>
+      </c>
+      <c r="L510" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511">
+        <v>2520</v>
+      </c>
+      <c r="B511" t="s">
+        <v>7</v>
+      </c>
+      <c r="C511" t="s">
+        <v>10</v>
+      </c>
+      <c r="I511">
+        <v>1004</v>
+      </c>
+      <c r="J511" t="s">
+        <v>685</v>
+      </c>
+      <c r="K511" t="s">
+        <v>689</v>
+      </c>
+      <c r="L511" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512">
+        <v>2521</v>
+      </c>
+      <c r="B512" t="s">
+        <v>7</v>
+      </c>
+      <c r="C512" t="s">
+        <v>10</v>
+      </c>
+      <c r="I512">
+        <v>1004</v>
+      </c>
+      <c r="J512" t="s">
+        <v>685</v>
+      </c>
+      <c r="K512" t="s">
+        <v>690</v>
+      </c>
+      <c r="L512" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513">
+        <v>2522</v>
+      </c>
+      <c r="B513" t="s">
+        <v>7</v>
+      </c>
+      <c r="C513" t="s">
+        <v>10</v>
+      </c>
+      <c r="I513">
+        <v>1004</v>
+      </c>
+      <c r="J513" t="s">
+        <v>685</v>
+      </c>
+      <c r="K513" t="s">
+        <v>691</v>
+      </c>
+      <c r="L513" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514">
+        <v>2523</v>
+      </c>
+      <c r="B514" t="s">
+        <v>7</v>
+      </c>
+      <c r="C514" t="s">
+        <v>10</v>
+      </c>
+      <c r="I514">
+        <v>1004</v>
+      </c>
+      <c r="J514" t="s">
+        <v>692</v>
+      </c>
+      <c r="K514" t="s">
+        <v>693</v>
+      </c>
+      <c r="L514" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515">
+        <v>2524</v>
+      </c>
+      <c r="B515" t="s">
+        <v>7</v>
+      </c>
+      <c r="C515" t="s">
+        <v>10</v>
+      </c>
+      <c r="I515">
+        <v>1004</v>
+      </c>
+      <c r="J515" t="s">
+        <v>692</v>
+      </c>
+      <c r="K515" t="s">
+        <v>694</v>
+      </c>
+      <c r="L515" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516">
+        <v>2525</v>
+      </c>
+      <c r="B516" t="s">
+        <v>7</v>
+      </c>
+      <c r="C516" t="s">
+        <v>10</v>
+      </c>
+      <c r="I516">
+        <v>1004</v>
+      </c>
+      <c r="J516" t="s">
+        <v>692</v>
+      </c>
+      <c r="K516" t="s">
+        <v>695</v>
+      </c>
+      <c r="L516" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517">
+        <v>2526</v>
+      </c>
+      <c r="B517" t="s">
+        <v>7</v>
+      </c>
+      <c r="C517" t="s">
+        <v>10</v>
+      </c>
+      <c r="I517">
+        <v>1004</v>
+      </c>
+      <c r="J517" t="s">
+        <v>692</v>
+      </c>
+      <c r="K517" t="s">
+        <v>696</v>
+      </c>
+      <c r="L517" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518">
+        <v>2527</v>
+      </c>
+      <c r="B518" t="s">
+        <v>7</v>
+      </c>
+      <c r="C518" t="s">
+        <v>10</v>
+      </c>
+      <c r="I518">
+        <v>1004</v>
+      </c>
+      <c r="J518" t="s">
+        <v>692</v>
+      </c>
+      <c r="K518" t="s">
+        <v>697</v>
+      </c>
+      <c r="L518" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519">
+        <v>2528</v>
+      </c>
+      <c r="B519" t="s">
+        <v>7</v>
+      </c>
+      <c r="C519" t="s">
+        <v>10</v>
+      </c>
+      <c r="I519">
+        <v>1004</v>
+      </c>
+      <c r="J519" t="s">
+        <v>692</v>
+      </c>
+      <c r="K519" t="s">
+        <v>698</v>
+      </c>
+      <c r="L519" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520">
+        <v>2529</v>
+      </c>
+      <c r="B520" t="s">
+        <v>7</v>
+      </c>
+      <c r="C520" t="s">
+        <v>10</v>
+      </c>
+      <c r="I520">
+        <v>1004</v>
+      </c>
+      <c r="J520" t="s">
+        <v>692</v>
+      </c>
+      <c r="K520" t="s">
+        <v>699</v>
+      </c>
+      <c r="L520" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521">
+        <v>2530</v>
+      </c>
+      <c r="B521" t="s">
+        <v>7</v>
+      </c>
+      <c r="C521" t="s">
+        <v>10</v>
+      </c>
+      <c r="I521">
+        <v>1004</v>
+      </c>
+      <c r="J521" t="s">
+        <v>700</v>
+      </c>
+      <c r="K521" t="s">
+        <v>701</v>
+      </c>
+      <c r="L521" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522">
+        <v>2531</v>
+      </c>
+      <c r="B522" t="s">
+        <v>7</v>
+      </c>
+      <c r="C522" t="s">
+        <v>10</v>
+      </c>
+      <c r="I522">
+        <v>1004</v>
+      </c>
+      <c r="J522" t="s">
+        <v>700</v>
+      </c>
+      <c r="K522" t="s">
+        <v>702</v>
+      </c>
+      <c r="L522" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523">
+        <v>2532</v>
+      </c>
+      <c r="B523" t="s">
+        <v>7</v>
+      </c>
+      <c r="C523" t="s">
+        <v>10</v>
+      </c>
+      <c r="I523">
+        <v>1004</v>
+      </c>
+      <c r="J523" t="s">
+        <v>700</v>
+      </c>
+      <c r="K523" t="s">
+        <v>703</v>
+      </c>
+      <c r="L523" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524">
+        <v>2533</v>
+      </c>
+      <c r="B524" t="s">
+        <v>7</v>
+      </c>
+      <c r="C524" t="s">
+        <v>10</v>
+      </c>
+      <c r="I524">
+        <v>1004</v>
+      </c>
+      <c r="J524" t="s">
+        <v>700</v>
+      </c>
+      <c r="K524" t="s">
+        <v>704</v>
+      </c>
+      <c r="L524" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525">
+        <v>2534</v>
+      </c>
+      <c r="B525" t="s">
+        <v>7</v>
+      </c>
+      <c r="C525" t="s">
+        <v>10</v>
+      </c>
+      <c r="I525">
+        <v>1004</v>
+      </c>
+      <c r="J525" t="s">
+        <v>700</v>
+      </c>
+      <c r="K525" t="s">
+        <v>705</v>
+      </c>
+      <c r="L525" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526">
+        <v>2535</v>
+      </c>
+      <c r="B526" t="s">
+        <v>7</v>
+      </c>
+      <c r="C526" t="s">
+        <v>10</v>
+      </c>
+      <c r="G526" t="s">
+        <v>706</v>
+      </c>
+      <c r="I526">
+        <v>1004</v>
+      </c>
+      <c r="J526" t="s">
+        <v>700</v>
+      </c>
+      <c r="K526" t="s">
+        <v>707</v>
+      </c>
+      <c r="L526" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527">
+        <v>2536</v>
+      </c>
+      <c r="B527" t="s">
+        <v>7</v>
+      </c>
+      <c r="C527" t="s">
+        <v>10</v>
+      </c>
+      <c r="I527">
+        <v>1004</v>
+      </c>
+      <c r="J527" t="s">
+        <v>700</v>
+      </c>
+      <c r="K527" t="s">
+        <v>709</v>
+      </c>
+      <c r="L527" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528">
+        <v>2537</v>
+      </c>
+      <c r="B528" t="s">
+        <v>7</v>
+      </c>
+      <c r="C528" t="s">
+        <v>10</v>
+      </c>
+      <c r="I528">
+        <v>1004</v>
+      </c>
+      <c r="J528" t="s">
+        <v>700</v>
+      </c>
+      <c r="K528" t="s">
+        <v>710</v>
+      </c>
+      <c r="L528" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529">
+        <v>2538</v>
+      </c>
+      <c r="B529" t="s">
+        <v>7</v>
+      </c>
+      <c r="C529" t="s">
+        <v>10</v>
+      </c>
+      <c r="I529">
+        <v>1003</v>
+      </c>
+      <c r="J529" t="s">
+        <v>711</v>
+      </c>
+      <c r="K529" t="s">
+        <v>712</v>
+      </c>
+      <c r="L529" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530">
+        <v>2539</v>
+      </c>
+      <c r="B530" t="s">
+        <v>7</v>
+      </c>
+      <c r="C530" t="s">
+        <v>10</v>
+      </c>
+      <c r="I530">
+        <v>1003</v>
+      </c>
+      <c r="J530" t="s">
+        <v>711</v>
+      </c>
+      <c r="K530" t="s">
+        <v>713</v>
+      </c>
+      <c r="L530" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531">
+        <v>2540</v>
+      </c>
+      <c r="B531" t="s">
+        <v>7</v>
+      </c>
+      <c r="C531" t="s">
+        <v>10</v>
+      </c>
+      <c r="I531">
+        <v>1003</v>
+      </c>
+      <c r="J531" t="s">
+        <v>711</v>
+      </c>
+      <c r="K531" t="s">
+        <v>714</v>
+      </c>
+      <c r="L531" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532">
+        <v>2541</v>
+      </c>
+      <c r="B532" t="s">
+        <v>7</v>
+      </c>
+      <c r="C532" t="s">
+        <v>10</v>
+      </c>
+      <c r="I532">
+        <v>1003</v>
+      </c>
+      <c r="J532" t="s">
+        <v>711</v>
+      </c>
+      <c r="K532" t="s">
+        <v>715</v>
+      </c>
+      <c r="L532" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533">
+        <v>2542</v>
+      </c>
+      <c r="B533" t="s">
+        <v>7</v>
+      </c>
+      <c r="C533" t="s">
+        <v>10</v>
+      </c>
+      <c r="I533">
+        <v>1003</v>
+      </c>
+      <c r="J533" t="s">
+        <v>711</v>
+      </c>
+      <c r="K533" t="s">
+        <v>716</v>
+      </c>
+      <c r="L533" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534">
+        <v>2543</v>
+      </c>
+      <c r="B534" t="s">
+        <v>7</v>
+      </c>
+      <c r="C534" t="s">
+        <v>10</v>
+      </c>
+      <c r="I534">
+        <v>1003</v>
+      </c>
+      <c r="J534" t="s">
+        <v>711</v>
+      </c>
+      <c r="K534" t="s">
+        <v>717</v>
+      </c>
+      <c r="L534" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535">
+        <v>2544</v>
+      </c>
+      <c r="B535" t="s">
+        <v>7</v>
+      </c>
+      <c r="C535" t="s">
+        <v>10</v>
+      </c>
+      <c r="I535">
+        <v>1003</v>
+      </c>
+      <c r="J535" t="s">
+        <v>718</v>
+      </c>
+      <c r="K535" t="s">
+        <v>719</v>
+      </c>
+      <c r="L535" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536">
+        <v>2545</v>
+      </c>
+      <c r="B536" t="s">
+        <v>7</v>
+      </c>
+      <c r="C536" t="s">
+        <v>10</v>
+      </c>
+      <c r="I536">
+        <v>1003</v>
+      </c>
+      <c r="J536" t="s">
+        <v>718</v>
+      </c>
+      <c r="K536" t="s">
+        <v>720</v>
+      </c>
+      <c r="L536" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537">
+        <v>2546</v>
+      </c>
+      <c r="B537" t="s">
+        <v>7</v>
+      </c>
+      <c r="C537" t="s">
+        <v>10</v>
+      </c>
+      <c r="I537">
+        <v>1003</v>
+      </c>
+      <c r="J537" t="s">
+        <v>718</v>
+      </c>
+      <c r="K537" t="s">
+        <v>721</v>
+      </c>
+      <c r="L537" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538">
+        <v>2547</v>
+      </c>
+      <c r="B538" t="s">
+        <v>7</v>
+      </c>
+      <c r="C538" t="s">
+        <v>10</v>
+      </c>
+      <c r="I538">
+        <v>1003</v>
+      </c>
+      <c r="J538" t="s">
+        <v>718</v>
+      </c>
+      <c r="K538" t="s">
+        <v>722</v>
+      </c>
+      <c r="L538" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539">
+        <v>2548</v>
+      </c>
+      <c r="B539" t="s">
+        <v>7</v>
+      </c>
+      <c r="C539" t="s">
+        <v>10</v>
+      </c>
+      <c r="I539">
+        <v>1003</v>
+      </c>
+      <c r="J539" t="s">
+        <v>718</v>
+      </c>
+      <c r="K539" t="s">
+        <v>723</v>
+      </c>
+      <c r="L539" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540">
+        <v>2549</v>
+      </c>
+      <c r="B540" t="s">
+        <v>7</v>
+      </c>
+      <c r="C540" t="s">
+        <v>10</v>
+      </c>
+      <c r="I540">
+        <v>1003</v>
+      </c>
+      <c r="J540" t="s">
+        <v>718</v>
+      </c>
+      <c r="K540" t="s">
+        <v>724</v>
+      </c>
+      <c r="L540" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541">
+        <v>2550</v>
+      </c>
+      <c r="B541" t="s">
+        <v>7</v>
+      </c>
+      <c r="C541" t="s">
+        <v>10</v>
+      </c>
+      <c r="I541">
+        <v>1003</v>
+      </c>
+      <c r="J541" t="s">
+        <v>725</v>
+      </c>
+      <c r="K541" t="s">
+        <v>726</v>
+      </c>
+      <c r="L541" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542">
+        <v>2551</v>
+      </c>
+      <c r="B542" t="s">
+        <v>7</v>
+      </c>
+      <c r="C542" t="s">
+        <v>10</v>
+      </c>
+      <c r="I542">
+        <v>1003</v>
+      </c>
+      <c r="J542" t="s">
+        <v>725</v>
+      </c>
+      <c r="K542" t="s">
+        <v>727</v>
+      </c>
+      <c r="L542" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543">
+        <v>2552</v>
+      </c>
+      <c r="B543" t="s">
+        <v>7</v>
+      </c>
+      <c r="C543" t="s">
+        <v>10</v>
+      </c>
+      <c r="I543">
+        <v>1003</v>
+      </c>
+      <c r="J543" t="s">
+        <v>725</v>
+      </c>
+      <c r="K543" t="s">
+        <v>728</v>
+      </c>
+      <c r="L543" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544">
+        <v>2553</v>
+      </c>
+      <c r="B544" t="s">
+        <v>7</v>
+      </c>
+      <c r="C544" t="s">
+        <v>10</v>
+      </c>
+      <c r="I544">
+        <v>1003</v>
+      </c>
+      <c r="J544" t="s">
+        <v>725</v>
+      </c>
+      <c r="K544" t="s">
+        <v>729</v>
+      </c>
+      <c r="L544" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545">
+        <v>2554</v>
+      </c>
+      <c r="B545" t="s">
+        <v>7</v>
+      </c>
+      <c r="C545" t="s">
+        <v>10</v>
+      </c>
+      <c r="I545">
+        <v>1003</v>
+      </c>
+      <c r="J545" t="s">
+        <v>725</v>
+      </c>
+      <c r="K545" t="s">
+        <v>730</v>
+      </c>
+      <c r="L545" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546">
+        <v>2555</v>
+      </c>
+      <c r="B546" t="s">
+        <v>7</v>
+      </c>
+      <c r="C546" t="s">
+        <v>10</v>
+      </c>
+      <c r="I546">
+        <v>1003</v>
+      </c>
+      <c r="J546" t="s">
+        <v>725</v>
+      </c>
+      <c r="K546" t="s">
+        <v>731</v>
+      </c>
+      <c r="L546" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547">
+        <v>2556</v>
+      </c>
+      <c r="B547" t="s">
+        <v>7</v>
+      </c>
+      <c r="C547" t="s">
+        <v>10</v>
+      </c>
+      <c r="I547">
+        <v>1003</v>
+      </c>
+      <c r="J547" t="s">
+        <v>732</v>
+      </c>
+      <c r="K547" t="s">
+        <v>733</v>
+      </c>
+      <c r="L547" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548">
+        <v>2557</v>
+      </c>
+      <c r="B548" t="s">
+        <v>7</v>
+      </c>
+      <c r="C548" t="s">
+        <v>10</v>
+      </c>
+      <c r="I548">
+        <v>1003</v>
+      </c>
+      <c r="J548" t="s">
+        <v>732</v>
+      </c>
+      <c r="K548" t="s">
+        <v>734</v>
+      </c>
+      <c r="L548" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549">
+        <v>2558</v>
+      </c>
+      <c r="B549" t="s">
+        <v>7</v>
+      </c>
+      <c r="C549" t="s">
+        <v>10</v>
+      </c>
+      <c r="I549">
+        <v>1003</v>
+      </c>
+      <c r="J549" t="s">
+        <v>732</v>
+      </c>
+      <c r="K549" t="s">
+        <v>735</v>
+      </c>
+      <c r="L549" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550">
+        <v>2559</v>
+      </c>
+      <c r="B550" t="s">
+        <v>7</v>
+      </c>
+      <c r="C550" t="s">
+        <v>10</v>
+      </c>
+      <c r="I550">
+        <v>1003</v>
+      </c>
+      <c r="J550" t="s">
+        <v>732</v>
+      </c>
+      <c r="K550" t="s">
+        <v>736</v>
+      </c>
+      <c r="L550" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551">
+        <v>2560</v>
+      </c>
+      <c r="B551" t="s">
+        <v>7</v>
+      </c>
+      <c r="C551" t="s">
+        <v>10</v>
+      </c>
+      <c r="I551">
+        <v>1003</v>
+      </c>
+      <c r="J551" t="s">
+        <v>732</v>
+      </c>
+      <c r="K551" t="s">
+        <v>737</v>
+      </c>
+      <c r="L551" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552">
+        <v>2561</v>
+      </c>
+      <c r="B552" t="s">
+        <v>7</v>
+      </c>
+      <c r="C552" t="s">
+        <v>10</v>
+      </c>
+      <c r="I552">
+        <v>1003</v>
+      </c>
+      <c r="J552" t="s">
+        <v>732</v>
+      </c>
+      <c r="K552" t="s">
+        <v>738</v>
+      </c>
+      <c r="L552" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553">
+        <v>2562</v>
+      </c>
+      <c r="B553" t="s">
+        <v>7</v>
+      </c>
+      <c r="C553" t="s">
+        <v>10</v>
+      </c>
+      <c r="I553">
+        <v>1003</v>
+      </c>
+      <c r="J553" t="s">
+        <v>739</v>
+      </c>
+      <c r="K553" t="s">
+        <v>740</v>
+      </c>
+      <c r="L553" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554">
+        <v>2563</v>
+      </c>
+      <c r="B554" t="s">
+        <v>7</v>
+      </c>
+      <c r="C554" t="s">
+        <v>10</v>
+      </c>
+      <c r="I554">
+        <v>1003</v>
+      </c>
+      <c r="J554" t="s">
+        <v>739</v>
+      </c>
+      <c r="K554" t="s">
+        <v>741</v>
+      </c>
+      <c r="L554" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555">
+        <v>2564</v>
+      </c>
+      <c r="B555" t="s">
+        <v>7</v>
+      </c>
+      <c r="C555" t="s">
+        <v>10</v>
+      </c>
+      <c r="I555">
+        <v>1003</v>
+      </c>
+      <c r="J555" t="s">
+        <v>739</v>
+      </c>
+      <c r="K555" t="s">
+        <v>742</v>
+      </c>
+      <c r="L555" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556">
+        <v>2565</v>
+      </c>
+      <c r="B556" t="s">
+        <v>7</v>
+      </c>
+      <c r="C556" t="s">
+        <v>10</v>
+      </c>
+      <c r="I556">
+        <v>1003</v>
+      </c>
+      <c r="J556" t="s">
+        <v>739</v>
+      </c>
+      <c r="K556" t="s">
+        <v>743</v>
+      </c>
+      <c r="L556" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557">
+        <v>2566</v>
+      </c>
+      <c r="B557" t="s">
+        <v>7</v>
+      </c>
+      <c r="C557" t="s">
+        <v>10</v>
+      </c>
+      <c r="I557">
+        <v>1003</v>
+      </c>
+      <c r="J557" t="s">
+        <v>739</v>
+      </c>
+      <c r="K557" t="s">
+        <v>744</v>
+      </c>
+      <c r="L557" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558">
+        <v>2567</v>
+      </c>
+      <c r="B558" t="s">
+        <v>7</v>
+      </c>
+      <c r="C558" t="s">
+        <v>10</v>
+      </c>
+      <c r="I558">
+        <v>1003</v>
+      </c>
+      <c r="J558" t="s">
+        <v>739</v>
+      </c>
+      <c r="K558" t="s">
+        <v>745</v>
+      </c>
+      <c r="L558" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559">
+        <v>2568</v>
+      </c>
+      <c r="B559" t="s">
+        <v>7</v>
+      </c>
+      <c r="C559" t="s">
+        <v>10</v>
+      </c>
+      <c r="I559">
+        <v>1003</v>
+      </c>
+      <c r="J559" t="s">
+        <v>746</v>
+      </c>
+      <c r="K559" t="s">
+        <v>747</v>
+      </c>
+      <c r="L559" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560">
+        <v>2569</v>
+      </c>
+      <c r="B560" t="s">
+        <v>7</v>
+      </c>
+      <c r="C560" t="s">
+        <v>10</v>
+      </c>
+      <c r="I560">
+        <v>1003</v>
+      </c>
+      <c r="J560" t="s">
+        <v>746</v>
+      </c>
+      <c r="K560" t="s">
+        <v>748</v>
+      </c>
+      <c r="L560" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561">
+        <v>2570</v>
+      </c>
+      <c r="B561" t="s">
+        <v>7</v>
+      </c>
+      <c r="C561" t="s">
+        <v>10</v>
+      </c>
+      <c r="I561">
+        <v>1003</v>
+      </c>
+      <c r="J561" t="s">
+        <v>746</v>
+      </c>
+      <c r="K561" t="s">
+        <v>749</v>
+      </c>
+      <c r="L561" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562">
+        <v>2571</v>
+      </c>
+      <c r="B562" t="s">
+        <v>7</v>
+      </c>
+      <c r="C562" t="s">
+        <v>10</v>
+      </c>
+      <c r="I562">
+        <v>1003</v>
+      </c>
+      <c r="J562" t="s">
+        <v>746</v>
+      </c>
+      <c r="K562" t="s">
+        <v>750</v>
+      </c>
+      <c r="L562" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563">
+        <v>2572</v>
+      </c>
+      <c r="B563" t="s">
+        <v>7</v>
+      </c>
+      <c r="C563" t="s">
+        <v>10</v>
+      </c>
+      <c r="I563">
+        <v>1003</v>
+      </c>
+      <c r="J563" t="s">
+        <v>746</v>
+      </c>
+      <c r="K563" t="s">
+        <v>751</v>
+      </c>
+      <c r="L563" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564">
+        <v>2573</v>
+      </c>
+      <c r="B564" t="s">
+        <v>7</v>
+      </c>
+      <c r="C564" t="s">
+        <v>10</v>
+      </c>
+      <c r="I564">
+        <v>1004</v>
+      </c>
+      <c r="J564" t="s">
+        <v>752</v>
+      </c>
+      <c r="K564" t="s">
+        <v>753</v>
+      </c>
+      <c r="L564" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565">
+        <v>2574</v>
+      </c>
+      <c r="B565" t="s">
+        <v>7</v>
+      </c>
+      <c r="C565" t="s">
+        <v>10</v>
+      </c>
+      <c r="I565">
+        <v>1004</v>
+      </c>
+      <c r="J565" t="s">
+        <v>752</v>
+      </c>
+      <c r="K565" t="s">
+        <v>754</v>
+      </c>
+      <c r="L565" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566">
+        <v>2575</v>
+      </c>
+      <c r="B566" t="s">
+        <v>7</v>
+      </c>
+      <c r="C566" t="s">
+        <v>10</v>
+      </c>
+      <c r="I566">
+        <v>1004</v>
+      </c>
+      <c r="J566" t="s">
+        <v>752</v>
+      </c>
+      <c r="K566" t="s">
+        <v>755</v>
+      </c>
+      <c r="L566" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567">
+        <v>2576</v>
+      </c>
+      <c r="B567" t="s">
+        <v>7</v>
+      </c>
+      <c r="C567" t="s">
+        <v>10</v>
+      </c>
+      <c r="I567">
+        <v>1004</v>
+      </c>
+      <c r="J567" t="s">
+        <v>752</v>
+      </c>
+      <c r="K567" t="s">
+        <v>756</v>
+      </c>
+      <c r="L567" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568">
+        <v>2577</v>
+      </c>
+      <c r="B568" t="s">
+        <v>7</v>
+      </c>
+      <c r="C568" t="s">
+        <v>10</v>
+      </c>
+      <c r="I568">
+        <v>1004</v>
+      </c>
+      <c r="J568" t="s">
+        <v>752</v>
+      </c>
+      <c r="K568" t="s">
+        <v>757</v>
+      </c>
+      <c r="L568" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569">
+        <v>2578</v>
+      </c>
+      <c r="B569" t="s">
+        <v>7</v>
+      </c>
+      <c r="C569" t="s">
+        <v>10</v>
+      </c>
+      <c r="I569">
+        <v>1004</v>
+      </c>
+      <c r="J569" t="s">
+        <v>752</v>
+      </c>
+      <c r="K569" t="s">
+        <v>758</v>
+      </c>
+      <c r="L569" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570">
+        <v>2579</v>
+      </c>
+      <c r="B570" t="s">
+        <v>7</v>
+      </c>
+      <c r="C570" t="s">
+        <v>10</v>
+      </c>
+      <c r="I570">
+        <v>1004</v>
+      </c>
+      <c r="J570" t="s">
+        <v>759</v>
+      </c>
+      <c r="K570" t="s">
+        <v>760</v>
+      </c>
+      <c r="L570" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571">
+        <v>2580</v>
+      </c>
+      <c r="B571" t="s">
+        <v>7</v>
+      </c>
+      <c r="C571" t="s">
+        <v>10</v>
+      </c>
+      <c r="I571">
+        <v>1004</v>
+      </c>
+      <c r="J571" t="s">
+        <v>759</v>
+      </c>
+      <c r="K571" t="s">
+        <v>761</v>
+      </c>
+      <c r="L571" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572">
+        <v>2581</v>
+      </c>
+      <c r="B572" t="s">
+        <v>7</v>
+      </c>
+      <c r="C572" t="s">
+        <v>10</v>
+      </c>
+      <c r="I572">
+        <v>1004</v>
+      </c>
+      <c r="J572" t="s">
+        <v>759</v>
+      </c>
+      <c r="K572" t="s">
+        <v>762</v>
+      </c>
+      <c r="L572" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573">
+        <v>2582</v>
+      </c>
+      <c r="B573" t="s">
+        <v>7</v>
+      </c>
+      <c r="C573" t="s">
+        <v>10</v>
+      </c>
+      <c r="I573">
+        <v>1004</v>
+      </c>
+      <c r="J573" t="s">
+        <v>759</v>
+      </c>
+      <c r="K573" t="s">
+        <v>763</v>
+      </c>
+      <c r="L573" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574">
+        <v>2583</v>
+      </c>
+      <c r="B574" t="s">
+        <v>7</v>
+      </c>
+      <c r="C574" t="s">
+        <v>10</v>
+      </c>
+      <c r="I574">
+        <v>1004</v>
+      </c>
+      <c r="J574" t="s">
+        <v>764</v>
+      </c>
+      <c r="K574" t="s">
+        <v>765</v>
+      </c>
+      <c r="L574" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575">
+        <v>2584</v>
+      </c>
+      <c r="B575" t="s">
+        <v>7</v>
+      </c>
+      <c r="C575" t="s">
+        <v>10</v>
+      </c>
+      <c r="I575">
+        <v>1004</v>
+      </c>
+      <c r="J575" t="s">
+        <v>764</v>
+      </c>
+      <c r="K575" t="s">
+        <v>766</v>
+      </c>
+      <c r="L575" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576">
+        <v>2585</v>
+      </c>
+      <c r="B576" t="s">
+        <v>7</v>
+      </c>
+      <c r="C576" t="s">
+        <v>10</v>
+      </c>
+      <c r="I576">
+        <v>1004</v>
+      </c>
+      <c r="J576" t="s">
+        <v>764</v>
+      </c>
+      <c r="K576" t="s">
+        <v>767</v>
+      </c>
+      <c r="L576" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577">
+        <v>2586</v>
+      </c>
+      <c r="B577" t="s">
+        <v>7</v>
+      </c>
+      <c r="C577" t="s">
+        <v>10</v>
+      </c>
+      <c r="I577">
+        <v>1004</v>
+      </c>
+      <c r="J577" t="s">
+        <v>764</v>
+      </c>
+      <c r="K577" t="s">
+        <v>768</v>
+      </c>
+      <c r="L577" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578">
+        <v>2587</v>
+      </c>
+      <c r="B578" t="s">
+        <v>7</v>
+      </c>
+      <c r="C578" t="s">
+        <v>10</v>
+      </c>
+      <c r="I578">
+        <v>1004</v>
+      </c>
+      <c r="J578" t="s">
+        <v>764</v>
+      </c>
+      <c r="K578" t="s">
+        <v>769</v>
+      </c>
+      <c r="L578" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579">
+        <v>2588</v>
+      </c>
+      <c r="B579" t="s">
+        <v>7</v>
+      </c>
+      <c r="C579" t="s">
+        <v>10</v>
+      </c>
+      <c r="I579">
+        <v>1004</v>
+      </c>
+      <c r="J579" t="s">
+        <v>764</v>
+      </c>
+      <c r="K579" t="s">
+        <v>770</v>
+      </c>
+      <c r="L579" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580">
+        <v>2590</v>
+      </c>
+      <c r="B580" t="s">
+        <v>7</v>
+      </c>
+      <c r="C580" t="s">
+        <v>10</v>
+      </c>
+      <c r="I580">
+        <v>1004</v>
+      </c>
+      <c r="J580" t="s">
+        <v>771</v>
+      </c>
+      <c r="K580" t="s">
+        <v>772</v>
+      </c>
+      <c r="L580" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581">
+        <v>2591</v>
+      </c>
+      <c r="B581" t="s">
+        <v>7</v>
+      </c>
+      <c r="C581" t="s">
+        <v>10</v>
+      </c>
+      <c r="I581">
+        <v>1004</v>
+      </c>
+      <c r="J581" t="s">
+        <v>771</v>
+      </c>
+      <c r="K581" t="s">
+        <v>773</v>
+      </c>
+      <c r="L581" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582">
+        <v>2592</v>
+      </c>
+      <c r="B582" t="s">
+        <v>7</v>
+      </c>
+      <c r="C582" t="s">
+        <v>10</v>
+      </c>
+      <c r="I582">
+        <v>1004</v>
+      </c>
+      <c r="J582" t="s">
+        <v>771</v>
+      </c>
+      <c r="K582" t="s">
+        <v>774</v>
+      </c>
+      <c r="L582" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583">
+        <v>2593</v>
+      </c>
+      <c r="B583" t="s">
+        <v>7</v>
+      </c>
+      <c r="C583" t="s">
+        <v>10</v>
+      </c>
+      <c r="I583">
+        <v>1004</v>
+      </c>
+      <c r="J583" t="s">
+        <v>771</v>
+      </c>
+      <c r="K583" t="s">
+        <v>775</v>
+      </c>
+      <c r="L583" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584">
+        <v>2594</v>
+      </c>
+      <c r="B584" t="s">
+        <v>7</v>
+      </c>
+      <c r="C584" t="s">
+        <v>10</v>
+      </c>
+      <c r="I584">
+        <v>1004</v>
+      </c>
+      <c r="J584" t="s">
+        <v>771</v>
+      </c>
+      <c r="K584" t="s">
+        <v>776</v>
+      </c>
+      <c r="L584" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585">
+        <v>2595</v>
+      </c>
+      <c r="B585" t="s">
+        <v>7</v>
+      </c>
+      <c r="C585" t="s">
+        <v>10</v>
+      </c>
+      <c r="I585">
+        <v>1004</v>
+      </c>
+      <c r="J585" t="s">
+        <v>771</v>
+      </c>
+      <c r="K585" t="s">
+        <v>777</v>
+      </c>
+      <c r="L585" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586">
+        <v>2596</v>
+      </c>
+      <c r="B586" t="s">
+        <v>7</v>
+      </c>
+      <c r="C586" t="s">
+        <v>10</v>
+      </c>
+      <c r="I586">
+        <v>1004</v>
+      </c>
+      <c r="J586" t="s">
+        <v>771</v>
+      </c>
+      <c r="K586" t="s">
+        <v>778</v>
+      </c>
+      <c r="L586" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587">
+        <v>2597</v>
+      </c>
+      <c r="B587" t="s">
+        <v>7</v>
+      </c>
+      <c r="C587" t="s">
+        <v>10</v>
+      </c>
+      <c r="I587">
+        <v>1004</v>
+      </c>
+      <c r="J587" t="s">
+        <v>779</v>
+      </c>
+      <c r="K587" t="s">
+        <v>780</v>
+      </c>
+      <c r="L587" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588">
+        <v>2598</v>
+      </c>
+      <c r="B588" t="s">
+        <v>7</v>
+      </c>
+      <c r="C588" t="s">
+        <v>10</v>
+      </c>
+      <c r="I588">
+        <v>1004</v>
+      </c>
+      <c r="J588" t="s">
+        <v>779</v>
+      </c>
+      <c r="K588" t="s">
+        <v>781</v>
+      </c>
+      <c r="L588" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589">
+        <v>2599</v>
+      </c>
+      <c r="B589" t="s">
+        <v>7</v>
+      </c>
+      <c r="C589" t="s">
+        <v>10</v>
+      </c>
+      <c r="I589">
+        <v>1004</v>
+      </c>
+      <c r="J589" t="s">
+        <v>779</v>
+      </c>
+      <c r="K589" t="s">
+        <v>782</v>
+      </c>
+      <c r="L589" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590">
+        <v>2600</v>
+      </c>
+      <c r="B590" t="s">
+        <v>7</v>
+      </c>
+      <c r="C590" t="s">
+        <v>10</v>
+      </c>
+      <c r="I590">
+        <v>1004</v>
+      </c>
+      <c r="J590" t="s">
+        <v>779</v>
+      </c>
+      <c r="K590" t="s">
+        <v>783</v>
+      </c>
+      <c r="L590" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591">
+        <v>2602</v>
+      </c>
+      <c r="B591" t="s">
+        <v>7</v>
+      </c>
+      <c r="C591" t="s">
+        <v>10</v>
+      </c>
+      <c r="I591">
+        <v>1004</v>
+      </c>
+      <c r="J591" t="s">
+        <v>779</v>
+      </c>
+      <c r="K591" t="s">
+        <v>784</v>
+      </c>
+      <c r="L591" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592">
+        <v>2603</v>
+      </c>
+      <c r="B592" t="s">
+        <v>7</v>
+      </c>
+      <c r="C592" t="s">
+        <v>10</v>
+      </c>
+      <c r="I592">
+        <v>1004</v>
+      </c>
+      <c r="J592" t="s">
+        <v>779</v>
+      </c>
+      <c r="K592" t="s">
+        <v>785</v>
+      </c>
+      <c r="L592" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593">
+        <v>2604</v>
+      </c>
+      <c r="B593" t="s">
+        <v>7</v>
+      </c>
+      <c r="C593" t="s">
+        <v>10</v>
+      </c>
+      <c r="I593">
+        <v>1004</v>
+      </c>
+      <c r="J593" t="s">
+        <v>786</v>
+      </c>
+      <c r="K593" t="s">
+        <v>787</v>
+      </c>
+      <c r="L593" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594">
+        <v>2606</v>
+      </c>
+      <c r="B594" t="s">
+        <v>7</v>
+      </c>
+      <c r="C594" t="s">
+        <v>10</v>
+      </c>
+      <c r="I594">
+        <v>1004</v>
+      </c>
+      <c r="J594" t="s">
+        <v>786</v>
+      </c>
+      <c r="K594" t="s">
+        <v>788</v>
+      </c>
+      <c r="L594" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595">
+        <v>2607</v>
+      </c>
+      <c r="B595" t="s">
+        <v>7</v>
+      </c>
+      <c r="C595" t="s">
+        <v>10</v>
+      </c>
+      <c r="I595">
+        <v>1004</v>
+      </c>
+      <c r="J595" t="s">
+        <v>786</v>
+      </c>
+      <c r="K595" t="s">
+        <v>789</v>
+      </c>
+      <c r="L595" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596">
+        <v>2608</v>
+      </c>
+      <c r="B596" t="s">
+        <v>7</v>
+      </c>
+      <c r="C596" t="s">
+        <v>10</v>
+      </c>
+      <c r="I596">
+        <v>1004</v>
+      </c>
+      <c r="J596" t="s">
+        <v>786</v>
+      </c>
+      <c r="K596" t="s">
+        <v>790</v>
+      </c>
+      <c r="L596" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597">
+        <v>2609</v>
+      </c>
+      <c r="B597" t="s">
+        <v>7</v>
+      </c>
+      <c r="C597" t="s">
+        <v>10</v>
+      </c>
+      <c r="I597">
+        <v>1004</v>
+      </c>
+      <c r="J597" t="s">
+        <v>786</v>
+      </c>
+      <c r="K597" t="s">
+        <v>791</v>
+      </c>
+      <c r="L597" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598">
+        <v>2610</v>
+      </c>
+      <c r="B598" t="s">
+        <v>7</v>
+      </c>
+      <c r="C598" t="s">
+        <v>10</v>
+      </c>
+      <c r="G598" t="s">
+        <v>792</v>
+      </c>
+      <c r="I598">
+        <v>1004</v>
+      </c>
+      <c r="J598" t="s">
+        <v>786</v>
+      </c>
+      <c r="K598" t="s">
+        <v>793</v>
+      </c>
+      <c r="L598" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599">
+        <v>2611</v>
+      </c>
+      <c r="B599" t="s">
+        <v>7</v>
+      </c>
+      <c r="C599" t="s">
+        <v>10</v>
+      </c>
+      <c r="G599" t="s">
+        <v>792</v>
+      </c>
+      <c r="I599">
+        <v>1004</v>
+      </c>
+      <c r="J599" t="s">
+        <v>786</v>
+      </c>
+      <c r="K599" t="s">
+        <v>794</v>
+      </c>
+      <c r="L599" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600">
+        <v>2612</v>
+      </c>
+      <c r="B600" t="s">
+        <v>7</v>
+      </c>
+      <c r="C600" t="s">
+        <v>10</v>
+      </c>
+      <c r="G600" t="s">
+        <v>795</v>
+      </c>
+      <c r="I600">
+        <v>1004</v>
+      </c>
+      <c r="J600" t="s">
+        <v>786</v>
+      </c>
+      <c r="K600" t="s">
+        <v>796</v>
+      </c>
+      <c r="L600" t="s">
+        <v>796</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>